--- a/graph_generation/results_prelim/gpt4/level_8/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt4/level_8/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>prompt</t>
   </si>
@@ -28,34 +30,142 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node O?
-   A B C D E F G H I J K L M N O
- A 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- B 4 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 5 0 4 0 1 0
- L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+    <t>evaluator_partial_correctness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 4 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 4 0 0 1 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 2 0 0 1 0
+ L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 2 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0
     </t>
   </si>
   <si>
-    <t>No possible path from A to O</t>
-  </si>
-  <si>
-    <t>The adjacency matrix is poorly formed as it lacks necessary connections to establish a path from node A to node O. For the existing matrix, there is no path between A and O as there is no direct or indirect connection between the two nodes. We would need at least one non-zero entry in the columns of the downstream nodes from A that leads to O to determine a least cost path. With the current information, the task is impossible to complete.</t>
-  </si>
-  <si>
-    <t>Wrong</t>
+    <t>No possible path from A to P</t>
+  </si>
+  <si>
+    <t>From the adjacency matrix, there seems to be a mistake as there is no direct or indirect link between node A and node P. Therefore, we cannot find a path from A to P.</t>
+  </si>
+  <si>
+    <t>invalid input</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 3 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>No possible path from A to Y</t>
+  </si>
+  <si>
+    <t>The adjacency matrix you provided suggests that there is no direct path from Node A to Node Y. Therefore, we have to consider other paths as well.
+The following can be a possible path:
+A -&gt; B (cost 5), B -&gt; C (cost 3), C -&gt; D (cost 2), D -&gt; I (cost 1), I -&gt; Y (cost 4)
+Total cost = 5+3+2+1+4 = 15
+There could be other paths as well, but without using an algorithm or tracing all possible paths and their associated costs it may not be possible to definitively find the smallest cost path. I have not considered paths that have 0 cost connections as you mentioned 0 means no connection.</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 3 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t>From the given matrix, we can quickly identify the lowest-cost path from node A to node Y by following the lowest numbers in each row, moving from left to right.
+A -&gt; B (Cost: 3)
+B -&gt; G (Cost: 1)
+G -&gt; There are no paths leading from G to other nodes. This is a dead end.
+Instead of going from B to G, we should go from B to C.
+A -&gt; B (Cost: 3)
+B -&gt; C (Cost: 2)
+C -&gt; H (Cost: 1)
+H -&gt; There are no paths leading from H to other nodes. Again, a dead end. 
+Considering the next lower cost from B, 
+A -&gt; B (Cost: 3)
+B -&gt; There is no other path from B. This seems to be a wrong path to reach Y.
+Let's try the next lower cost option A-&gt; F.
+A -&gt; F (Cost: 3)
+F -&gt; I (Cost : 2)
+I -&gt; N (Cost : 4)
+N -&gt; Q (Cost : 4)
+Q -&gt; U (Cost : 1)
+U -&gt; Y (Cost : 2)
+The total cost is 3+2+4+4+1+2 = 16 units.
+So, the least cost path from node A to node Y is A -&gt; F -&gt; I -&gt; N -&gt; Q -&gt; U -&gt; Y.</t>
+  </si>
+  <si>
+    <t>0/0</t>
   </si>
 </sst>
 </file>
@@ -413,13 +523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,19 +542,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
